--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/17/word_level_predictions_17.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -2426,418 +2426,418 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
+      <c r="A39" t="n">
         <v>3</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" t="n">
         <v>3</v>
       </c>
-      <c r="E39" s="2" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F39" s="2" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G39" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L39" s="2" t="inlineStr">
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" t="b">
+        <v>1</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" t="n">
         <v>4</v>
       </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L40" s="2" t="inlineStr">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" t="b">
+        <v>1</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
+      <c r="A41" t="n">
         <v>3</v>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" t="n">
         <v>5</v>
       </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K41" t="b">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" t="n">
         <v>6</v>
       </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2894,158 +2894,158 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" t="n">
+      <c r="D48" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K48" t="b">
-        <v>1</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="G48" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K49" t="b">
-        <v>1</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="D49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" t="n">
+      <c r="D50" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" t="b">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K50" t="b">
-        <v>1</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9134,106 +9134,106 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E168" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="F168" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G168" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I168" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K168" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="G168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="F209" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G209" s="2" t="b">
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18130,262 +18130,262 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
+      <c r="F342" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="n">
+      <c r="A387" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B387" t="inlineStr">
+      <c r="B387" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" t="inlineStr">
+      <c r="C387" s="2" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" t="n">
+      <c r="D387" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E387" t="inlineStr">
+      <c r="E387" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G387" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K387" t="b">
-        <v>1</v>
-      </c>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F387" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K387" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L387" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="n">
+      <c r="A388" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B388" t="inlineStr">
+      <c r="B388" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" t="inlineStr">
+      <c r="C388" s="2" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" t="inlineStr">
+      <c r="D388" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" t="inlineStr">
+      <c r="F388" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K388" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L388" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B389" s="2" t="inlineStr">
+        <is>
+          <t>Insufficient SD card space Change card or delete files .</t>
+        </is>
+      </c>
+      <c r="C389" s="2" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="D389" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E389" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G388" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K388" t="b">
-        <v>1</v>
-      </c>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
+      <c r="F389" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K389" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L389" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B389" t="inlineStr">
+      <c r="B390" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="D389" t="n">
-        <v>2</v>
-      </c>
-      <c r="E389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F389" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G389" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K389" t="b">
-        <v>1</v>
-      </c>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>35</v>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>Insufficient SD card space Change card or delete files .</t>
-        </is>
-      </c>
-      <c r="C390" t="inlineStr">
+      <c r="C390" s="2" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" t="n">
+      <c r="D390" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E390" t="inlineStr">
+      <c r="E390" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G390" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K390" t="b">
-        <v>1</v>
-      </c>
-      <c r="L390" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F390" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K390" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L390" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
@@ -24237,83 +24237,83 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B459" s="2" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C459" s="2" t="inlineStr">
+        <is>
+          <t>Temp</t>
+        </is>
+      </c>
+      <c r="D459" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E459" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
-        <v>42</v>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>Temp</t>
-        </is>
-      </c>
-      <c r="D459" t="n">
-        <v>2</v>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G460" t="b">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem2/17/word_level_predictions_17.xlsx
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G13" s="2" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G14" s="2" t="b">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1253,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G16" s="2" t="b">
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G18" s="2" t="b">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2426,418 +2426,418 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I39" t="b">
-        <v>1</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K39" t="b">
-        <v>1</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="G39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I40" t="b">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K40" t="b">
-        <v>1</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I41" t="b">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K41" t="b">
-        <v>1</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I42" t="b">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -2894,158 +2894,158 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
+      <c r="A48" t="n">
         <v>4</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C48" s="2" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>RTH</t>
         </is>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" t="n">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F48" s="2" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G48" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2" t="inlineStr">
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I48" t="b">
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K48" t="b">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
+      <c r="A49" t="n">
         <v>4</v>
       </c>
-      <c r="B49" s="2" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C49" s="2" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F49" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G49" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2" t="inlineStr">
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K49" t="b">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
+      <c r="A50" t="n">
         <v>4</v>
       </c>
-      <c r="B50" s="2" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C50" s="2" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>98FT</t>
         </is>
       </c>
-      <c r="D50" s="2" t="n">
+      <c r="D50" t="n">
         <v>2</v>
       </c>
-      <c r="E50" s="2" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F50" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G50" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9134,106 +9134,106 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" t="n">
         <v>16</v>
       </c>
-      <c r="B168" s="2" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C168" s="2" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" t="n">
         <v>3</v>
       </c>
-      <c r="E168" s="2" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F168" s="2" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G168" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" s="2" t="inlineStr">
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" t="n">
         <v>16</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" t="n">
         <v>4</v>
       </c>
-      <c r="E169" s="2" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="F209" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G209" s="2" t="b">
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="L209" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18130,262 +18130,262 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>30</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>30</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Takeoff</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>3</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B343" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C343" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D343" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E343" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B344" s="2" t="inlineStr">
+        <is>
+          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
+        </is>
+      </c>
+      <c r="C344" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D344" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="L341" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="L344" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
-        <is>
-          <t>Takeoff</t>
-        </is>
-      </c>
-      <c r="D342" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="D345" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E345" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F345" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>30</v>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D343" t="n">
-        <v>4</v>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>30</v>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D344" t="n">
-        <v>5</v>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>30</v>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>support</t>
-        </is>
-      </c>
-      <c r="D345" t="n">
-        <v>6</v>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="L345" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20522,210 +20522,210 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="2" t="n">
+      <c r="A387" t="n">
         <v>35</v>
       </c>
-      <c r="B387" s="2" t="inlineStr">
+      <c r="B387" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C387" s="2" t="inlineStr">
+      <c r="C387" t="inlineStr">
         <is>
           <t>Insufficient</t>
         </is>
       </c>
-      <c r="D387" s="2" t="n">
+      <c r="D387" t="n">
         <v>0</v>
       </c>
-      <c r="E387" s="2" t="inlineStr">
+      <c r="E387" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F387" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H387" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I387" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J387" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K387" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L387" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G387" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I387" t="b">
+        <v>1</v>
+      </c>
+      <c r="J387" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K387" t="b">
+        <v>1</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="2" t="n">
+      <c r="A388" t="n">
         <v>35</v>
       </c>
-      <c r="B388" s="2" t="inlineStr">
+      <c r="B388" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C388" s="2" t="inlineStr">
+      <c r="C388" t="inlineStr">
         <is>
           <t>SD</t>
         </is>
       </c>
-      <c r="D388" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" s="2" t="inlineStr">
+      <c r="D388" t="n">
+        <v>1</v>
+      </c>
+      <c r="E388" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F388" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H388" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I388" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J388" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K388" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L388" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G388" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I388" t="b">
+        <v>1</v>
+      </c>
+      <c r="J388" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K388" t="b">
+        <v>1</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="2" t="n">
+      <c r="A389" t="n">
         <v>35</v>
       </c>
-      <c r="B389" s="2" t="inlineStr">
+      <c r="B389" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C389" s="2" t="inlineStr">
+      <c r="C389" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D389" s="2" t="n">
+      <c r="D389" t="n">
         <v>2</v>
       </c>
-      <c r="E389" s="2" t="inlineStr">
+      <c r="E389" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F389" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H389" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I389" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J389" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K389" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L389" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G389" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I389" t="b">
+        <v>1</v>
+      </c>
+      <c r="J389" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K389" t="b">
+        <v>1</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="2" t="n">
+      <c r="A390" t="n">
         <v>35</v>
       </c>
-      <c r="B390" s="2" t="inlineStr">
+      <c r="B390" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C390" s="2" t="inlineStr">
+      <c r="C390" t="inlineStr">
         <is>
           <t>space</t>
         </is>
       </c>
-      <c r="D390" s="2" t="n">
+      <c r="D390" t="n">
         <v>3</v>
       </c>
-      <c r="E390" s="2" t="inlineStr">
+      <c r="E390" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F390" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H390" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I390" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J390" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K390" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L390" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G390" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I390" t="b">
+        <v>1</v>
+      </c>
+      <c r="J390" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K390" t="b">
+        <v>1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F447" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G447" s="2" t="b">
@@ -23677,11 +23677,11 @@
         </is>
       </c>
       <c r="I447" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J447" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K447" s="2" t="b">
@@ -23689,7 +23689,7 @@
       </c>
       <c r="L447" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -23729,11 +23729,11 @@
         </is>
       </c>
       <c r="I448" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J448" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K448" s="2" t="b">
@@ -23781,11 +23781,11 @@
         </is>
       </c>
       <c r="I449" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J449" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K449" s="2" t="b">
@@ -23833,11 +23833,11 @@
         </is>
       </c>
       <c r="I450" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J450" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K450" s="2" t="b">
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G458" t="b">
@@ -24261,59 +24261,59 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>42</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>2</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G460" t="b">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
